--- a/Data binding/Register Data.xlsx
+++ b/Data binding/Register Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\damar\Documents\SKRIPSI\YukJahit\yuk-jahit-Katalon\Data binding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{264144A4-5998-4F1E-836B-9521BB70D060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B41D6D8-58D0-410E-8E27-D6B92673A4C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3375" yWindow="1770" windowWidth="21600" windowHeight="11835" xr2:uid="{ABFF1EAD-E5BF-4B9A-8C5A-40A996329E71}"/>
+    <workbookView xWindow="3900" yWindow="3900" windowWidth="21600" windowHeight="11835" xr2:uid="{ABFF1EAD-E5BF-4B9A-8C5A-40A996329E71}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>Name</t>
   </si>
@@ -45,52 +45,70 @@
     <t>Address</t>
   </si>
   <si>
-    <t>yukjahitkatalon2@email.com</t>
-  </si>
-  <si>
-    <t>yukjahitkatalon</t>
-  </si>
-  <si>
     <t>08123456789</t>
   </si>
   <si>
-    <t>Address of YukJahit Katalon</t>
-  </si>
-  <si>
-    <t>Registered User</t>
-  </si>
-  <si>
-    <t>user@gmail.com</t>
-  </si>
-  <si>
-    <t>Wrong Password</t>
-  </si>
-  <si>
     <t>password1234</t>
   </si>
   <si>
-    <t>wrongpassword@email.com</t>
-  </si>
-  <si>
-    <t>Address of Wrong Password</t>
-  </si>
-  <si>
-    <t>Address of Registered User</t>
-  </si>
-  <si>
     <t>Expected</t>
   </si>
   <si>
     <t>nothing</t>
   </si>
   <si>
-    <t>Yuk Jahit Katalon (2)</t>
-  </si>
-  <si>
     <t>success</t>
   </si>
   <si>
     <t>failed</t>
+  </si>
+  <si>
+    <t>Yuk Jahit daftar</t>
+  </si>
+  <si>
+    <t>email terdaftar</t>
+  </si>
+  <si>
+    <t>emailterdaftar@email.com</t>
+  </si>
+  <si>
+    <t>password salah format</t>
+  </si>
+  <si>
+    <t>passwordsalahformat@email.com</t>
+  </si>
+  <si>
+    <t>password tidak sama</t>
+  </si>
+  <si>
+    <t>passwordtidaksama@email.com</t>
+  </si>
+  <si>
+    <t>tidaksama</t>
+  </si>
+  <si>
+    <t>tidaksama2</t>
+  </si>
+  <si>
+    <t>yukjahit123</t>
+  </si>
+  <si>
+    <t>alamat password tidak sama</t>
+  </si>
+  <si>
+    <t>alamat password salah format</t>
+  </si>
+  <si>
+    <t>alamat email terdaftar</t>
+  </si>
+  <si>
+    <t>alamat lengkap yukjahit</t>
+  </si>
+  <si>
+    <t>emailterdaftar</t>
+  </si>
+  <si>
+    <t>yukjahitdaftar@email.com</t>
   </si>
 </sst>
 </file>
@@ -454,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{129DF65D-105E-46CB-B5F5-A9B71DBA41F4}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,164 +509,112 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
       <c r="D4" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
       <c r="E5" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F6" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="G6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
         <v>10</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B10" r:id="rId1" xr:uid="{7CBEF4DB-39F6-4ABB-B1F2-E8EEAAC75DBA}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{F33AB6E8-C2BD-48FE-9994-677592BA3B9B}"/>
-    <hyperlink ref="B11" r:id="rId3" xr:uid="{1A9733E1-85D3-4131-A3CD-EFBA94A22A6F}"/>
-    <hyperlink ref="B9" r:id="rId4" xr:uid="{A8E6B9DF-60AE-4768-B143-6A613238E76F}"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{7CBEF4DB-39F6-4ABB-B1F2-E8EEAAC75DBA}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{1A9733E1-85D3-4131-A3CD-EFBA94A22A6F}"/>
+    <hyperlink ref="B6" r:id="rId3" xr:uid="{A8E6B9DF-60AE-4768-B143-6A613238E76F}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{AB6284C2-107C-41EF-ABB5-B5B77287439C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
